--- a/data/运输下单测试用例-UAT.xlsx
+++ b/data/运输下单测试用例-UAT.xlsx
@@ -17782,8 +17782,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -17830,6 +17830,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -17851,9 +17859,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17884,61 +17930,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17952,8 +17951,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17986,7 +17986,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17998,79 +18070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18088,19 +18100,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18112,31 +18130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18154,19 +18160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18195,15 +18195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -18223,7 +18214,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18260,11 +18260,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18286,9 +18284,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18300,10 +18300,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -18312,133 +18312,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22567,8 +22567,8 @@
   <sheetPr/>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-UAT.xlsx
+++ b/data/运输下单测试用例-UAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -12403,7 +12403,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12411,7 +12411,13 @@
         ],
         "shippingModeCode": "TPM_ROAD",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12430,7 +12436,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12438,7 +12444,13 @@
         ],
         "shippingModeCode": "TPM_RAIL",
         "transnationalShipment":False
-    }
+    },
+   "sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12457,7 +12469,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12465,7 +12477,13 @@
         ],
         "shippingModeCode": "TPM_SEA",
         "transnationalShipment":False
-    }
+    },
+  "sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12484,7 +12502,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12492,7 +12510,13 @@
         ],
         "shippingModeCode": "TPM_AIR",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12511,7 +12535,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12519,7 +12543,13 @@
         ],
         "shippingModeCode": "TPM_AIR",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12538,7 +12568,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12546,7 +12576,13 @@
         ],
         "shippingModeCode": "TPM_SEA",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12565,7 +12601,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12573,7 +12609,13 @@
         ],
         "shippingModeCode": "TPM_EXPRESS",
         "transnationalShipment":False
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -12592,7 +12634,7 @@
     <t>{
     "pagingCondition": {
         "pageIndex": 0,
-        "pageSize": 50
+        "pageSize": 5
     },
     "shipmentDemandCondition": {
         "demandStatuses": [
@@ -12600,7 +12642,13 @@
         ],
         "shippingModeCode": "TPM_EXPRESS",
         "transnationalShipment":True
-    }
+    },
+"sortConditions": [
+        {
+            "ascending": False,
+            "propertyName": "audit.createdTime"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -15553,15 +15601,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15583,7 +15633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15596,17 +15646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15620,9 +15661,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15668,8 +15715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15684,7 +15732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15717,133 +15765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15861,7 +15783,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15873,13 +15927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15891,13 +15939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15928,9 +15976,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -15950,6 +16039,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -15965,61 +16063,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16034,7 +16082,7 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16043,16 +16091,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16067,7 +16115,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16082,94 +16130,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16644,7 +16692,7 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -18938,8 +18986,8 @@
   <sheetPr/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-UAT.xlsx
+++ b/data/运输下单测试用例-UAT.xlsx
@@ -17045,10 +17045,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -17079,36 +17079,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -17123,11 +17093,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -17138,16 +17161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17169,14 +17192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -17185,31 +17200,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17249,7 +17249,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17261,97 +17351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17369,6 +17369,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -17381,55 +17429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17458,21 +17458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -17482,11 +17467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17506,6 +17497,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -17521,26 +17521,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17563,10 +17563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17575,133 +17575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18177,7 +18177,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -22455,8 +22455,8 @@
   <sheetPr/>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/运输下单测试用例-UAT.xlsx
+++ b/data/运输下单测试用例-UAT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7450" uniqueCount="2935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7450" uniqueCount="2924">
   <si>
     <t>case_id</t>
   </si>
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>{
-"vehicle_type_id":"$..id_exclusive['TKG_SFW','TKG_CCA','G_MIN','TKG_ACV','TKG_RCB']",
+"vehicle_type_id":"$..id_exclusive['TKG_SFW','TKG_CCA','TKG_ACV','TKG_RCB','TKG_MIN']",
 "vehicle_type_code":"$..code",
 "vehicle_type_name":"$..name"
 }</t>
@@ -2055,7 +2055,8 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-          "cityCodeEq":"SCI105647",
+          "cityCodeEq":None,
+          "idOrNameOrLocalLike":"CNSZZ",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -2088,7 +2089,8 @@
     <t>{
     "transportLocationSearchCondition": {
         "externalSystemCodeIn": ["UN", "CARGOWISE"],
-        "cityCodeEq":"SCI106141",
+        "cityCodeEq":None,
+        "idOrNameOrLocalLike":"USLAX",
         "cityCodeNull": False
     },
     "pageCondition": {
@@ -13475,6 +13477,264 @@
     <t>0761</t>
   </si>
   <si>
+    <t>{
+"remarks": "123456asdfasdf",
+"referenceOrders":
+ [
+  {
+   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderType": "${internat_reference_order_id}"
+   }
+  ],
+"shippingInfo": {
+  "partialShipmentAllowed":True,
+   "selfProvidedCabinet":True,
+   "transhipmentAllowed":True, 
+  "seaTransportationNode": {
+   "designatedSeaport": True,
+   "originSeaportId": "${sea_origin_id}",
+   "dischargeSeaportId": "${sea_dest_id}"
+  }, 
+  "reqTimeOfDepart": 1622776198000,
+   "reqTimeOfArrival ": 1622862598000,
+  "etd": 1657784368000,
+   "eta": 1689320368000,
+   "loadingTypeCode": "${internat_sea_load_type_id}",
+   "serviceModeCode": "${internat_sea_server_type_id}",
+   "incotermsCode":"${incoterms_id}",
+   "billOfLadingTypeCode":"${sea_lading_type}",
+   "selfProvidedCabinet":True
+ ,
+   "containerInfos": [
+   {
+    "containerSizeCode": "${internat_container_specification_id}",
+    "containerSizeName": "${internat_container_specification_code}",
+    "containerType": "${containerCode}",
+    "containerTypeCode": "${containerType}",
+    "requestContainerQty": 12
+   }
+  ],
+     "originCityId": "${internat_cityCode_1}",
+   "originLocationCode":"${five_word_id_3}",
+   "destinationCityId": "${internat_cityCode_2}",
+   "destinationLocationCode":"${five_word_id_4}",
+   "shipper":{                                           
+          "contactPartnerId": "${internat_shipper_contactPartnerId}",    
+          "contactPartnerName": "${internat_shipper_contactPartnerName}",  
+                     "contactPartnerType": "${internat_shipper_contactPartnerType}",  
+           "addressAbbreviation": "${internat_shipper_addressAbbreviation}",
+          "addressCode": "${internat_shipper_addressCode}",         
+          "countryCode": "${internat_shipper_countryCode}",         
+                     "countryName": "${internat_shipper_countryName}",         
+          "provinceCode": "${internat_shipper_provinceCode}",        
+                     "provinceName": "${internat_shipper_provinceName}",        
+          "cityCode": "${internat_shipper_cityCode}",            
+                     "cityName": "${internat_shipper_cityName}",            
+          "districtCode": "${internat_shipper_districtCode}",        
+                     "districtName": "${internat_shipper_districtName}",        
+          "streetCode": "${internat_shipper_streetCode}",          
+                     "streetName": "${internat_shipper_streetName}",          
+          "addressDetail": "${internat_shipper_addressDetail}",       
+          "postCode": "${internat_shipper_postCode}",            
+          "contactName": "${internat_shipper_contactName}",         
+          "telephoneArea": "${internat_shipper_telephoneArea}",        
+                     "telephoneNumber": "${internat_shipper_telephoneNumber}",     
+          "mobileNumber": "${internat_shipper_mobileNumber}",        
+                     "mobileArea": "${internat_shipper_mobileArea}",          
+          "email": "${internat_shipper_email}" ,
+     "transportLocationCode": "${internat_shipper_transportLocationCode}" ,
+  "isDefault": True,
+ "isInternationalPartner": True
+          }  ,                                                              
+   "pickUp":True,
+   "marksAndNumbers":"${@CHAR}",
+   "shippingAddress":{                                        
+   "contactPartnerAddressId": "${internat_shippingAddress_contactPartnerAddressId}",  
+   "addressAbbreviation": "${internat_shippingAddress_addressAbbreviation}",      
+   "addressCode": "${internat_shippingAddress_addressCode}",              
+   "countryCode": "${internat_shippingAddress_countryCode}",              
+      "countryName": "${internat_shippingAddress_countryName}",              
+   "provinceCode": "${internat_shippingAddress_provinceCode}",             
+      "provinceName": "${internat_shippingAddress_provinceName}",             
+   "cityCode": "${internat_shippingAddress_cityCode}",                 
+      "cityName": "${internat_shippingAddress_cityName}",                 
+   "districtCode": "${internat_shippingAddress_districtCode}",             
+      "districtName": "${internat_shippingAddress_districtName}",             
+   "streetCode": "${internat_shippingAddress_streetCode}",               
+      "streetName": "${internat_shippingAddress_streetName}",               
+   "addressDetail": "${internat_shippingAddress_addressDetail}",            
+   "postCode": "${internat_shippingAddress_postCode}",                 
+   "contactName": "${internat_shippingAddress_contactName}",              
+   "telephoneArea": "${internat_shippingAddress_telephoneArea}",             
+      "telephoneNumber": "${internat_shippingAddress_telephoneNumber}",          
+   "mobileNumber": "${internat_shippingAddress_mobileNumber}",             
+      "mobileArea": "${internat_shippingAddress_mobileArea}",               
+   "email": "${internat_shippingAddress_email}" ,
+ "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
+ "consignee":{                                         
+         "contactPartnerId": "${internat_consignee_contactPartnerId}",    
+         "contactPartnerName": "${internat_consignee_contactPartnerName}",  
+                   "contactPartnerType": "${internat_consignee_contactPartnerType}",  
+         "addressAbbreviation": "${internat_consignee_addressAbbreviation}",
+         "addressCode": "${internat_consignee_addressCode}",         
+         "countryCode": "${internat_consignee_countryCode}",         
+                   "countryName": "${internat_consignee_countryName}",         
+         "provinceCode": "${internat_consignee_provinceCode}",        
+                   "provinceName": "${internat_consignee_provinceName}",        
+         "cityCode": "${internat_consignee_cityCode}",            
+                   "cityName": "${internat_consignee_cityName}",            
+         "districtCode": "${internat_consignee_districtCode}",        
+                   "districtName": "${internat_consignee_districtName}",        
+         "streetCode": "${internat_consignee_streetCode}",          
+                   "streetName": "${internat_consignee_streetName}",          
+         "addressDetail": "${internat_consignee_addressDetail}",       
+         "postCode": "${internat_consignee_postCode}",            
+         "contactName": "${internat_consignee_contactName}",         
+         "telephoneArea": "${internat_consignee_telephoneArea}",        
+                   "telephoneNumber": "${internat_consignee_telephoneNumber}",     
+         "mobileNumber": "${internat_consignee_mobileNumber}",        
+                   "mobileArea": "${internat_consignee_mobileArea}",          
+         "email": "${internat_consignee_email}" ,
+  "transportLocationCode": "${internat_consignee_transportLocationCode}",
+  "isDefault": True,
+  "isInternationalPartner": True
+     } ,                                                                          
+ "takeDelivery":True,
+ "receivingAddress":{                                    
+  "contactPartnerAddressId": "${internat_receivingAddress_contactPartnerAddressId}", 
+  "addressAbbreviation": "${internat_receivingAddress_addressAbbreviation}",     
+  "addressCode": "${internat_receivingAddress_addressCode}",             
+  "countryCode": "${internat_receivingAddress_countryCode}",             
+   "countryName": "${internat_receivingAddress_countryName}",              
+  "provinceCode": "${internat_receivingAddress_provinceCode}",            
+   "provinceName": "${internat_receivingAddress_provinceName}",             
+  "cityCode": "${internat_receivingAddress_cityCode}",                
+   "cityName": "${internat_receivingAddress_cityName}",                 
+  "districtCode": "${internat_receivingAddress_districtCode}",            
+   "districtName": "${internat_receivingAddress_districtName}",             
+  "streetCode": "${internat_receivingAddress_streetCode}",              
+   "streetName": "${internat_receivingAddress_streetName}",               
+  "addressDetail": "${internat_receivingAddress_addressDetail}",           
+  "postCode": "${internat_receivingAddress_postCode}",                
+  "contactName": "${internat_receivingAddress_contactName}",             
+  "telephoneArea": "${internat_receivingAddress_telephoneArea}",            
+   "telephoneNumber": "${internat_receivingAddress_telephoneNumber}",          
+  "mobileNumber": "${internat_receivingAddress_mobileNumber}",            
+   "mobileArea": "${internat_receivingAddress_mobileArea}",               
+ "email": "${internat_receivingAddress_email}" ,
+ "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
+ "isDefault": False,
+"isInternationalPartner": True
+    },
+ "notifyParty":{                                
+    "contactPartnerId": "${internat_notifyParty_contactPartnerId}",    
+    "contactPartnerName": "${internat_notifyParty_contactPartnerName}",  
+        "contactPartnerType": "${internat_notifyParty_contactPartnerType}",  
+    "addressAbbreviation": "${internat_notifyParty_addressAbbreviation}",
+    "addressCode": "${internat_notifyParty_addressCode}",         
+    "countryCode": "${internat_notifyParty_countryCode}",         
+        "countryName": "${internat_notifyParty_countryName}",         
+    "provinceCode": "${internat_notifyParty_provinceCode}",        
+        "provinceName": "${internat_notifyParty_provinceName}",        
+    "cityCode": "${internat_notifyParty_cityCode}",            
+        "cityName": "${internat_notifyParty_cityName}",            
+    "districtCode": "${internat_notifyParty_districtCode}",        
+        "districtName": "${internat_notifyParty_districtName}",        
+    "streetCode": "${internat_notifyParty_streetCode}",          
+        "streetName": "${internat_notifyParty_streetName}",          
+    "addressDetail": "${internat_notifyParty_addressDetail}",       
+    "postCode": "${internat_notifyParty_postCode}",            
+    "contactName": "${internat_notifyParty_contactName}",         
+    "telephoneArea": "${internat_notifyParty_telephoneArea}",        
+        "telephoneNumber": "${internat_notifyParty_telephoneNumber}",     
+    "mobileNumber": "${internat_notifyParty_mobileNumber}",        
+        "mobileArea": "${internat_notifyParty_mobileArea}",          
+    "email": "${internat_notifyParty_email}" ,
+ "transportLocationCode": "${internat_notifyParty_transportLocationCode}" ,
+ "isDefault": True,
+"isInternationalPartner": True
+    },
+   "entrustedParty":{                            
+  "contactPartnerId": "${internat_entrustedParty_contactPartnerId}",   
+  "contactPartnerName": "${internat_entrustedParty_contactPartnerName}", 
+   "contactPartnerType": "${internat_entrustedParty_contactPartnerType}",  
+  "addressAbbreviation": "${internat_entrustedParty_addressAbbreviation}",
+  "addressCode": "${internat_entrustedParty_addressCode}",        
+  "countryCode": "${internat_entrustedParty_countryCode}",        
+   "countryName": "${internat_entrustedParty_countryName}",         
+  "provinceCode": "${internat_entrustedParty_provinceCode}",       
+   "provinceName": "${internat_entrustedParty_provinceName}",        
+  "cityCode": "${internat_entrustedParty_cityCode}",           
+   "cityName": "${internat_entrustedParty_cityName}",            
+  "districtCode": "${internat_entrustedParty_districtCode}",       
+   "districtName": "${internat_entrustedParty_districtName}",        
+  "streetCode": "${internat_entrustedParty_streetCode}",         
+   "streetName": "${internat_entrustedParty_streetName}",          
+  "addressDetail": "${internat_entrustedParty_addressDetail}",      
+  "postCode": "${internat_entrustedParty_postCode}",           
+  "contactName": "${internat_entrustedParty_contactName}",        
+  "telephoneArea": "${internat_entrustedParty_telephoneArea}",       
+   "telephoneNumber": "${internat_entrustedParty_telephoneNumber}",     
+  "mobileNumber": "${internat_entrustedParty_mobileNumber}",       
+   "mobileArea": "${internat_entrustedParty_mobileArea}",          
+ "email": "${internat_entrustedParty_email}" ,
+  "transportLocationCode": "${internat_entrustedParty_transportLocationCode}",
+  "isDefault": True,
+"isInternationalPartner": True
+   }  
+ },
+"cargoInfo": {
+  "dangerousCargo":True,
+  "cargoTypeCode":"${cargo_types_id}",
+  "grossWeight": 12.86,
+  "grossWeightUnitCode": "${weight_unit_type}",
+  "pieceQty": 11,
+  "pieceQtyUnitCode": "${package_unit_types_id}",
+  "totalPackageQty": 12,
+  "totalPackageQtyUnitCode": "${package_unit_types_id}",
+  "totalVolume": 13,
+  "totalVolumeUnitCode": "${volume_unit_type}",
+  "bulkCartonQty": 14,
+  "bulkCartonQtyUnitCode": "${package_unit_types_id}",
+  "cargoDescription": "1231456asdfasdfasdkfj!",
+  "cargoInfoLines": [
+   {
+    "companyPn": "P123456!",
+    "descriptionGoods": "123SAFD@#",
+    "hsCode": "465ASDFASDF_A",
+    "invoiceNumber": "ASDFaa",
+    "packageQuantity": 12,
+    "packageUnitCode": "${internat_line_units_id}",
+    "referenceLineNo": "456456~@#",
+    "referenceNo": "asdfasdf#$%",
+ "unitPrice": "${@INT}",
+  "volume": "${@INT}",
+  "width": "${@INT}",
+  "amount": "${@INT}",
+  "height": "4${@INT}",
+  "length": "${@INT}",
+  "currencyCode": "${currencyCode}",
+  "grossWeight": "${@INT}",
+  "netWeight": "${@INT}",
+  "cargoQuantity": 13
+   }
+  ]
+ }, 
+ "valueAddedBusiness": {
+  "cargoValue": 10,
+  "currencyCode": "${currencyCode}",
+  "insurance": True,
+  "entrustCustomsDeclaration":False,
+  "customsBroker":"${@INT}",
+  "insuredValue":11
+ },
+"attachments": $__attachment{internat_sea}
+}</t>
+  </si>
+  <si>
     <t>{"internat_sea_order_id":"$..data","save_international_sea_params":"input_params"}</t>
   </si>
   <si>
@@ -13490,7 +13750,7 @@
     <t>运输下单-运输需求-获取OMS国际海运订单号，订单号不能为空</t>
   </si>
   <si>
-    <t>/juslink-sccp-shipment-demand-app/shipment-demand/${submit_internat_sea_order_id}/order-status</t>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/${internat_sea_order_id}/order-status</t>
   </si>
   <si>
     <t>0764</t>
@@ -13499,7 +13759,7 @@
     <t>运输下单-国际海运-撤回</t>
   </si>
   <si>
-    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-sea/withdraw/${submit_internat_sea_order_id}</t>
+    <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-sea/withdraw/${internat_sea_order_id}</t>
   </si>
   <si>
     <t>运输PO下单-采购订单-国际海运保存为运输需求</t>
@@ -18275,8 +18535,8 @@
    "originLocationCode":"${five_word_id_3}",
    "destinationCityId": "${internat_cityCode_2}",
    "destinationLocationCode":"${five_word_id_4}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
+   "reqTimeOfDepart": 1622776198000,
+   "reqTimeOfArrival ": 1622862598000,
    "etd": 1657784368000,
    "eta": 1689320368000,
    "serviceModeCode": "${internat_air_server_type_id}",
@@ -18331,25 +18591,23 @@
   "currencyCode": "${currencyCode}",
   "insurance": True,
   "entrustCustomsDeclaration": False,
-  "customsBroker":"{@INT}",
+  "customsBroker":"{INT}",
   "insuredValue":11
  },
-"attachments": $__attachment{internat_air},
 "documentsAttachesGenerate":{
- "letterOfAttorneyGenerate":False
+ "letterOfAttorneyGenerate":True
 }
 }</t>
   </si>
   <si>
-    <t>{"inernat_air_order_id":"$..data"}</t>
-  </si>
-  <si>
     <t>{
 "remarks": "123456asdfasdf",
+"sourceOrderType":"PO",
+"id":"${internatal_sea_po_save_order_id}",
 "referenceOrders":
  [
   {
-   "referenceOrderNo": "${@PHONE}",
+   "referenceOrderNo": "${internatal_sea_po_no}",
    "referenceOrderType": "${internat_reference_order_id}"
    }
   ],
@@ -18362,8 +18620,8 @@
    "originSeaportId": "${sea_origin_id}",
    "dischargeSeaportId": "${sea_dest_id}"
   }, 
-  "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
+  "reqTimeOfDepart": 1622776198000,
+   "reqTimeOfArrival ": 1622862598000,
   "etd": 1657784368000,
    "eta": 1689320368000,
    "loadingTypeCode": "${internat_sea_load_type_id}",
@@ -18567,1258 +18825,47 @@
   "bulkCartonQty": 14,
   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
   "cargoDescription": "1231456asdfasdfasdkfj!",
-  "cargoInfoLines": [
-   {
-    "companyPn": "P123456!",
-    "descriptionGoods": "123SAFD@#",
-    "hsCode": "465ASDFASDF_A",
-    "invoiceNumber": "ASDFaa",
-    "packageQuantity": 12,
-    "packageUnitCode": "${internat_line_units_id}",
-    "referenceLineNo": "456456~@#",
-    "referenceNo": "asdfasdf#$%",
- "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
+"cargoInfoLines": [
+    {
+  "companyPn": "${internatal_sea_part_no}",
+  "descriptionGoods": "${@LETTER}",
+  "hsCode": "${@LETTER}",
+  "invoiceNumber": "${@LETTER}",
+  "packageQuantity": 1,
+  "packageUnitCode": "${internat_line_units_id}",
+  "referenceLineNo": "${internatal_sea_po_line}",
+  "referenceNo": "${internatal_sea_po_no}",
+  "unitPrice": "1.000011",
+  "volume": "1.000011",
+  "width": "1.000011",
+  "amount": "1.000011",
+  "height": "1.000011",
+  "length": "1.000011",
   "currencyCode": "${currencyCode}",
-  "grossWeight": "${@INT}",
-  "netWeight": "${@INT}",
-  "cargoQuantity": 13
-   }
-  ]
+  "grossWeight": "33.000011",
+  "netWeight": "30.000011"
+    }
+   ]
  }, 
  "valueAddedBusiness": {
   "cargoValue": 10,
   "currencyCode": "${currencyCode}",
   "insurance": True,
   "entrustCustomsDeclaration":False,
-  "customsBroker":"${@INT}",
+  "customsBroker":"${INT}",
   "insuredValue":11
  },
 "attachments": $__attachment{internat_sea}
 }</t>
   </si>
   <si>
-    <t>{"internat_sea_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_road},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_road_load_type_id}",
-   "serviceModeCode": "${cn_road_server_type_id}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "vehicleInfos": [
-   {
-    "needCustomsSupervision": "${customsSupervisionFlag}",
-    "vehicleQty": 11,
-    "vehicleSpecificationCode": "${vehicle_specification_id}",
-    "vehicleTypeCode": "${vehicle_type_id}"
-   }
-  ],
-  "uturn": True,
-  "uturnAreaCode": "${bonded_area_id}",
-  "uturnDocumentCode": "${uturn_document_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@PHONE}",
-  "width": "${@PHONE}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@PHONE}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True,
-   "needDischarge": True,
-   "needLoad": False,
-   "pod": True,
-   "speedway": True,
-   "urgent": True,
-   "needEscort":True,
-   "escortTypeCode":"${escort_type_id}"
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"road_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
- "referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_air},
- "shippingInfo": 
-  {
-  "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}",
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${cn_air_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "marksAndNumbers":"${@CHAR}",
-   "containerInfo": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "airTransportationNode": {
-   "designatedAirport": True,
-   "dischargeAirportId": "${air_dest_id}",
-   "originAirportId": "${air_origin_id}"
-  }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}7",
-  "width": "${@INT}8",
-  "amount": "${@INT}9",
-  "height": "4${@INT}",
-  "length": "${@INT}1",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "urgent": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_air_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_sea},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}",
-  "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_sea_load_type_id}",
-   "serviceModeCode": "${cn_sea_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "marksAndNumbers":"${@CHAR}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 465456
-   }
-  ],
-  "seaTransportationNode": {
-   "designatedSeaport": True,
-   "originSeaportId": "${sea_origin_id}",
-   "dischargeSeaportId": "${sea_dest_id}"
-  }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "3${@INT}",
-  "amount": "4${@INT}",
-  "height": "4${@INT}",
-  "length": "5${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "11111",
-  "netWeight": "2222"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_sea_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
- "referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
-"attachments": $__attachment{cn_rail},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
-  "isDefault": True,
-  "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
-    "isDefault": False,
- "isInternationalPartner": False  
-    },
- "notifyParty":{                                  
-         "contactPartnerId": "${cn_notifyParty_contactPartnerId}",   
-         "contactPartnerName": "${cn_notifyParty_contactPartnerName}", 
-                   "contactPartnerType": "${cn_notifyParty_contactPartnerType}", 
-         "addressAbbreviation": "${cn_notifyParty_addressAbbreviation}",
-         "addressCode": "${cn_notifyParty_addressCode}",        
-         "countryCode": "${cn_notifyParty_countryCode}",        
-                   "countryName": "${cn_notifyParty_countryName}",        
-         "provinceCode": "${cn_notifyParty_provinceCode}",       
-                   "provinceName": "${cn_notifyParty_provinceName}",       
-         "cityCode": "${cn_notifyParty_cityCode}",           
-                   "cityName": "${cn_notifyParty_cityName}",           
-         "districtCode": "${cn_notifyParty_districtCode}",       
-                   "districtName": "${cn_notifyParty_districtName}",       
-         "streetCode": "${cn_notifyParty_streetCode}",         
-                   "streetName": "${cn_notifyParty_streetName}",         
-         "addressDetail": "${cn_notifyParty_addressDetail}",      
-         "postCode": "${cn_notifyParty_postCode}",           
-         "contactName": "${cn_notifyParty_contactName}",        
-         "telephoneArea": "${cn_notifyParty_telephoneArea}",       
-                   "telephoneNumber": "${cn_notifyParty_telephoneNumber}",    
-         "mobileNumber": "${cn_notifyParty_mobileNumber}",       
-                   "mobileArea": "${cn_notifyParty_mobileArea}",         
-         "email": "${cn_notifyParty_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       }, 
-   "pickUp":True,
-   "consigneeId": "${consignee_id}",
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "loadingTypeCode": "${cn_rail_load_type_id}",
-   "serviceModeCode": "${cn_rail_server_type_id}",
-   "paymentTypeCode": "${paying_types_id}",
-   "containerInfos": [
-   {
-    "containerSizeCode": "${container_specification_id}",
-    "containerSizeName": "${container_specification_code}",
-    "containerType": "${containerCode}",
-    "containerTypeCode": "${containerType}",
-    "requestContainerQty": 12
-   }
-  ],
-  "railwayTransportationNode": {
-   "designatedRailwayStation": True,
-   "dischargeRailwayStationId": "${dest_station_id}",
-   "originRailwayStationId": "${origin_station_id}"
-   }
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "${@INT}",
-  "volume": "${@INT}",
-  "width": "${@INT}",
-  "amount": "${@INT}",
-  "height": "4${@INT}",
-  "length": "${@INT}",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "33333",
-  "netWeight": "4444.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "needContainerJit": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_rail_order_id":"$..data"}</t>
-  </si>
-  <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${cn_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{cn_express},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${cn_express_server_type_id}",
-   "paymentTypeCode":"${express_paying_types_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "2${@INT}",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}7",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55"
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "pod": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"cn_express_order_id":"$..data"}</t>
+    <t>{"cn_express_order_id":"$..data","save_demestic_express_params":"input_params"}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/domestic-express/submit/${cn_express_order_id}</t>
   </si>
   <si>
-    <t>{
-"referenceOrders":
- [
-  {
-   "referenceOrderNo": "${@PHONE}",
-   "referenceOrderType": "${internat_reference_order_id}"
-   }
-  ],
- "attachments": $__attachment{internat_express},
- "shippingInfo": 
-  {
-   "shipper":{                                
-       "contactPartnerId": "${cn_shipper_contactPartnerId}",    
-       "contactPartnerName": "${cn_shipper_contactPartnerName}",  
-               "contactPartnerType": "${cn_shipper_contactPartnerType}",  
-       "addressAbbreviation": "${cn_shipper_addressAbbreviation}",
-       "addressCode": "${cn_shipper_addressCode}",         
-       "countryCode": "${cn_shipper_countryCode}",         
-               "countryName": "${cn_shipper_countryName}",         
-       "provinceCode": "${cn_shipper_provinceCode}",        
-               "provinceName": "${cn_shipper_provinceName}",        
-       "cityCode": "${cn_shipper_cityCode}",            
-               "cityName": "${cn_shipper_cityName}",            
-       "districtCode": "${cn_shipper_districtCode}",        
-               "districtName": "${cn_shipper_districtName}",        
-       "streetCode": "${cn_shipper_streetCode}",          
-               "streetName": "${cn_shipper_streetName}",          
-       "addressDetail": "${cn_shipper_addressDetail}",       
-       "postCode": "${cn_shipper_postCode}",            
-       "contactName": "${cn_shipper_contactName}",         
-       "telephoneArea": "${cn_shipper_telephoneArea}",        
-               "telephoneNumber": "${cn_shipper_telephoneNumber}",     
-       "mobileNumber": "${cn_shipper_mobileNumber}",        
-               "mobileArea": "${cn_shipper_mobileArea}",          
-       "email": "${cn_shipper_email}",
-  "isDefault": True,
-  "isInternationalPartner": False,
-  "transportLocationCode": "${internat_shipper_transportLocationCode}"
-       },
- "shippingAddress":{                                      
-     "contactPartnerAddressId": "${cn_shippingAddress_contactPartnerAddressId}",  
-     "addressAbbreviation": "${cn_shippingAddress_addressAbbreviation}",      
-     "addressCode": "${cn_shippingAddress_addressCode}",              
-     "countryCode": "${cn_shippingAddress_countryCode}",              
-          "countryName": "${cn_shippingAddress_countryName}",              
-     "provinceCode": "${cn_shippingAddress_provinceCode}",             
-          "provinceName": "${cn_shippingAddress_provinceName}",             
-     "cityCode": "${cn_shippingAddress_cityCode}",                 
-          "cityName": "${cn_shippingAddress_cityName}",                 
-     "districtCode": "${cn_shippingAddress_districtCode}",             
-          "districtName": "${cn_shippingAddress_districtName}",             
-     "streetCode": "${cn_shippingAddress_streetCode}",               
-          "streetName": "${cn_shippingAddress_streetName}",               
-     "addressDetail": "${cn_shippingAddress_addressDetail}",            
-     "postCode": "${cn_shippingAddress_postCode}",                 
-     "contactName": "${cn_shippingAddress_contactName}",              
-     "telephoneArea": "${cn_shippingAddress_telephoneArea}",             
-          "telephoneNumber": "${cn_shippingAddress_telephoneNumber}",          
-     "mobileNumber": "${cn_shippingAddress_mobileNumber}",             
-          "mobileArea": "${cn_shippingAddress_mobileArea}",               
-     "email": "${cn_shippingAddress_email}",
-  "transportLocationCode": "${internat_shippingAddress_transportLocationCode}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
- "consignee":{                               
-      "contactPartnerId": "${cn_consignee_contactPartnerId}",    
-      "contactPartnerName": "${cn_consignee_contactPartnerName}",  
-             "contactPartnerType": "${cn_consignee_contactPartnerType}",  
-      "addressAbbreviation": "${cn_consignee_addressAbbreviation}",
-      "addressCode": "${cn_consignee_addressCode}",         
-      "countryCode": "${cn_consignee_countryCode}",         
-             "countryName": "${cn_consignee_countryName}",         
-      "provinceCode": "${cn_consignee_provinceCode}",        
-             "provinceName": "${cn_consignee_provinceName}",        
-      "cityCode": "${cn_consignee_cityCode}",            
-             "cityName": "${cn_consignee_cityName}",            
-      "districtCode": "${cn_consignee_districtCode}",        
-             "districtName": "${cn_consignee_districtName}",        
-      "streetCode": "${cn_consignee_streetCode}",          
-             "streetName": "${cn_consignee_streetName}",          
-      "addressDetail": "${cn_consignee_addressDetail}",       
-      "postCode": "${cn_consignee_postCode}",            
-      "contactName": "${cn_consignee_contactName}",         
-      "telephoneArea": "${cn_consignee_telephoneArea}",        
-             "telephoneNumber": "${cn_consignee_telephoneNumber}",     
-      "mobileNumber": "${cn_consignee_mobileNumber}",        
-             "mobileArea": "${cn_consignee_mobileArea}",          
-      "email": "${cn_consignee_email}" ,
-   "transportLocationCode": "${internat_consignee_transportLocationCode}" ,
- "isDefault": True,
- "isInternationalPartner": False
-     },
- "receivingAddress":{                                      
-      "contactPartnerAddressId": "${cn_receivingAddress_contactPartnerAddressId}", 
-      "addressAbbreviation": "${cn_receivingAddress_addressAbbreviation}",     
-      "addressCode": "${cn_receivingAddress_addressCode}",             
-      "countryCode": "${cn_receivingAddress_countryCode}",             
-           "countryName": "${cn_receivingAddress_countryName}",              
-      "provinceCode": "${cn_receivingAddress_provinceCode}",            
-           "provinceName": "${cn_receivingAddress_provinceName}",             
-      "cityCode": "${cn_receivingAddress_cityCode}",                
-           "cityName": "${cn_receivingAddress_cityName}",                 
-      "districtCode": "${cn_receivingAddress_districtCode}",            
-           "districtName": "${cn_receivingAddress_districtName}",             
-      "streetCode": "${cn_receivingAddress_streetCode}",              
-           "streetName": "${cn_receivingAddress_streetName}",               
-      "addressDetail": "${cn_receivingAddress_addressDetail}",           
-      "postCode": "${cn_receivingAddress_postCode}",                
-      "contactName": "${cn_receivingAddress_contactName}",             
-      "telephoneArea": "${cn_receivingAddress_telephoneArea}",            
-           "telephoneNumber": "${cn_receivingAddress_telephoneNumber}",          
-      "mobileNumber": "${cn_receivingAddress_mobileNumber}",            
-           "mobileArea": "${cn_receivingAddress_mobileArea}",               
-     "email": "${cn_receivingAddress_email}" ,
-  "transportLocationCode": "${internat_receivingAddress_transportLocationCode}",
- "isDefault": False,
- "isInternationalPartner": False
-    },
-   "pickUp":True,
-   "takeDelivery":True,
-   "originCityId": "${origin_city_code}",
-   "destinationCityId": "${destion_city_code}",
-   "requiredPickupTime": 1622776198000,
-   "requiredArrivalTime": 1622862598000,
-   "serviceModeCode": "${internat_express_server_type_id}",
-   "paymentTypeCode": "${express_paying_types_id}",
-   "originLocationCode": "${internat_shipper_transportLocationCode}",
-   "destinationLocationCode": "${internat_consignee_transportLocationCode}",
-   "incotermsCode":"${incoterms_id}"
-  },
-   "cargoInfo": {
-   "cargoTypeCode":"${cargo_types_id}",
-   "grossWeight": 12.86,
-   "grossWeightUnitCode": "${weight_unit_type}",
-   "pieceQty": 11,
-   "pieceQtyUnitCode": "${package_unit_types_id}",
-   "totalPackageQty": 12,
-   "totalPackageQtyUnitCode": "${package_unit_types_id}",
-   "totalVolume": 13,
-   "totalVolumeUnitCode": "${volume_unit_type}",
-   "bulkCartonQty": 14,
-   "bulkCartonQtyUnitCode": "${package_unit_types_id}",
-   "cargoDescription": "1231456asdfasdfasdkfj!",
-   "cargoInfoLines": [
-    {
-  "companyPn": "${@LETTER}",
-  "descriptionGoods": "${@LETTER}",
-  "hsCode": "${@LETTER}",
-  "invoiceNumber": "${@LETTER}",
-  "packageQuantity": 1200,
-  "packageUnitCode": "${units_id}",
-  "referenceLineNo": "${@LETTER}",
-  "referenceNo": "${@LETTER}",
-  "unitPrice": "1${@INT}",
-  "volume": "${@INT}2",
-  "width": "${@INT}3",
-  "amount": "${@INT}4",
-  "height": "4${@INT}",
-  "length": "${@INT}7",
-  "currencyCode": "${currencyCode}",
-  "grossWeight": "12345678.11",
-  "netWeight": "12345.55",
-  "cargoQuantity": 8456456123
-    }
-   ] 
-    },
- "valueAddedBusiness": {
-   "cargoValue": 10.00,
-   "currencyCode": "${currencyCode}",
-   "insurance": True,
-   "pod": True
-  },
- "settlementInfo": {
-    "consignorId": "${companyId}",
-    "costCode": "${costCode}"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{"inernat_express_order_id":"$..data"}</t>
+    <t>{"inernat_express_order_id":"$..data","save_international_express_params":"input_params"}</t>
   </si>
   <si>
     <t>/juslink-sccp-shipment-demand-app/shipment-demand/international-express/submit/${inernat_express_order_id}</t>
@@ -19861,9 +18908,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -19894,29 +18941,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -19925,21 +18949,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -19961,10 +18978,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -19984,38 +19070,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -20025,14 +19080,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -20065,13 +19112,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20083,7 +19196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20095,7 +19208,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20107,13 +19250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20125,37 +19280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20168,84 +19293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -20288,16 +19335,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20342,25 +19389,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20372,6 +19410,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -20392,10 +19439,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20404,133 +19451,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21005,8 +20052,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -21161,8 +20208,8 @@
   <sheetPr/>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView topLeftCell="B116" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21212,16 +20259,16 @@
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
@@ -21231,7 +20278,7 @@
         <v>1894</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
@@ -21239,16 +20286,16 @@
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16" t="s">
@@ -21262,16 +20309,16 @@
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="13" t="s">
@@ -21285,23 +20332,23 @@
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -21310,16 +20357,16 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16" t="s">
@@ -21333,16 +20380,16 @@
     </row>
     <row r="7" ht="67" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="13" t="s">
@@ -21356,23 +20403,23 @@
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -21381,16 +20428,16 @@
     </row>
     <row r="9" ht="96" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="13" t="s">
@@ -21404,16 +20451,16 @@
     </row>
     <row r="10" ht="144" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="13" t="s">
@@ -21427,23 +20474,23 @@
     </row>
     <row r="11" ht="114" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -21452,16 +20499,16 @@
     </row>
     <row r="12" ht="114" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="13" t="s">
@@ -21475,16 +20522,16 @@
     </row>
     <row r="13" ht="114" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="13" t="s">
@@ -21498,23 +20545,23 @@
     </row>
     <row r="14" ht="114" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -21523,16 +20570,16 @@
     </row>
     <row r="15" ht="114" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="13" t="s">
@@ -21546,16 +20593,16 @@
     </row>
     <row r="16" ht="114" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="13" t="s">
@@ -21569,23 +20616,23 @@
     </row>
     <row r="17" ht="114" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -21594,16 +20641,16 @@
     </row>
     <row r="18" ht="114" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="13" t="s">
@@ -21617,16 +20664,16 @@
     </row>
     <row r="19" ht="114" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="13" t="s">
@@ -21640,23 +20687,23 @@
     </row>
     <row r="20" ht="114" customHeight="1" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -21665,16 +20712,16 @@
     </row>
     <row r="21" ht="114" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="13" t="s">
@@ -21688,16 +20735,16 @@
     </row>
     <row r="22" ht="114" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="13" t="s">
@@ -21711,23 +20758,23 @@
     </row>
     <row r="23" ht="114" customHeight="1" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -21736,16 +20783,16 @@
     </row>
     <row r="24" ht="114" customHeight="1" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="13" t="s">
@@ -21759,16 +20806,16 @@
     </row>
     <row r="25" ht="114" customHeight="1" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="13" t="s">
@@ -21782,23 +20829,23 @@
     </row>
     <row r="26" ht="216" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
@@ -21807,16 +20854,16 @@
     </row>
     <row r="27" ht="122" customHeight="1" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="16" t="s">
@@ -21830,16 +20877,16 @@
     </row>
     <row r="28" ht="117" customHeight="1" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="13" t="s">
@@ -21853,23 +20900,23 @@
     </row>
     <row r="29" ht="189" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
@@ -21878,16 +20925,16 @@
     </row>
     <row r="30" ht="189" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="16" t="s">
@@ -21896,21 +20943,21 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="13" t="s">
@@ -21919,28 +20966,28 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="16" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="32" ht="189" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -21949,16 +20996,16 @@
     </row>
     <row r="33" ht="189" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="16" t="s">
@@ -21967,21 +21014,21 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="34" ht="189" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="13" t="s">
@@ -21990,28 +21037,28 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="21" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="35" ht="189" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -22020,16 +21067,16 @@
     </row>
     <row r="36" ht="189" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="16" t="s">
@@ -22043,16 +21090,16 @@
     </row>
     <row r="37" ht="189" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="13" t="s">
@@ -22066,23 +21113,23 @@
     </row>
     <row r="38" ht="189" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -22091,16 +21138,16 @@
     </row>
     <row r="39" ht="189" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="16" t="s">
@@ -22109,21 +21156,21 @@
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="40" ht="189" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="13" t="s">
@@ -22132,28 +21179,28 @@
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="41" ht="189" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -22162,16 +21209,16 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="16" t="s">
@@ -22180,21 +21227,21 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="13" t="s">
@@ -22203,28 +21250,28 @@
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="44" ht="229.5" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
@@ -22233,16 +21280,16 @@
     </row>
     <row r="45" ht="155" customHeight="1" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="16" t="s">
@@ -22256,16 +21303,16 @@
     </row>
     <row r="46" ht="160" customHeight="1" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="13" t="s">
@@ -22279,23 +21326,23 @@
     </row>
     <row r="47" ht="189" customHeight="1" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
@@ -22304,16 +21351,16 @@
     </row>
     <row r="48" ht="201" customHeight="1" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="16" t="s">
@@ -22327,16 +21374,16 @@
     </row>
     <row r="49" ht="220" customHeight="1" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="13" t="s">
@@ -22350,23 +21397,23 @@
     </row>
     <row r="50" ht="189" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
@@ -22375,16 +21422,16 @@
     </row>
     <row r="51" ht="202.5" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="16" t="s">
@@ -22393,21 +21440,21 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="52" ht="202.5" spans="1:9">
       <c r="A52" s="9" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="13" t="s">
@@ -22416,31 +21463,31 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="21" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="53" ht="108" customHeight="1" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>37</v>
@@ -22448,16 +21495,16 @@
     </row>
     <row r="54" ht="189" spans="1:9">
       <c r="A54" s="9" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="5" t="s">
@@ -22473,16 +21520,16 @@
     </row>
     <row r="55" ht="189" spans="1:9">
       <c r="A55" s="9" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="16" t="s">
@@ -22496,16 +21543,16 @@
     </row>
     <row r="56" ht="122" customHeight="1" spans="1:9">
       <c r="A56" s="9" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="13" t="s">
@@ -22519,23 +21566,23 @@
     </row>
     <row r="57" ht="189" spans="1:9">
       <c r="A57" s="9" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
@@ -22544,16 +21591,16 @@
     </row>
     <row r="58" ht="189" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="16" t="s">
@@ -22567,16 +21614,16 @@
     </row>
     <row r="59" ht="189" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="13" t="s">
@@ -22590,23 +21637,23 @@
     </row>
     <row r="60" ht="90" customHeight="1" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
@@ -22615,16 +21662,16 @@
     </row>
     <row r="61" ht="90" customHeight="1" spans="1:9">
       <c r="A61" s="9" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="13" t="s">
@@ -22638,16 +21685,16 @@
     </row>
     <row r="62" ht="90" customHeight="1" spans="1:9">
       <c r="A62" s="9" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="13" t="s">
@@ -22661,23 +21708,23 @@
     </row>
     <row r="63" ht="90" customHeight="1" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
@@ -22686,16 +21733,16 @@
     </row>
     <row r="64" ht="90" customHeight="1" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="13" t="s">
@@ -22709,16 +21756,16 @@
     </row>
     <row r="65" ht="90" customHeight="1" spans="1:9">
       <c r="A65" s="9" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="13" t="s">
@@ -22732,23 +21779,23 @@
     </row>
     <row r="66" ht="90" customHeight="1" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5" t="s">
@@ -22757,16 +21804,16 @@
     </row>
     <row r="67" ht="90" customHeight="1" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="13" t="s">
@@ -22780,16 +21827,16 @@
     </row>
     <row r="68" ht="90" customHeight="1" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="13" t="s">
@@ -22803,23 +21850,23 @@
     </row>
     <row r="69" ht="90" customHeight="1" spans="1:9">
       <c r="A69" s="9" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="5" t="s">
@@ -22828,16 +21875,16 @@
     </row>
     <row r="70" ht="90" customHeight="1" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="13" t="s">
@@ -22851,16 +21898,16 @@
     </row>
     <row r="71" ht="90" customHeight="1" spans="1:9">
       <c r="A71" s="9" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="13" t="s">
@@ -22874,23 +21921,23 @@
     </row>
     <row r="72" ht="90" customHeight="1" spans="1:9">
       <c r="A72" s="9" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="5" t="s">
@@ -22899,16 +21946,16 @@
     </row>
     <row r="73" ht="90" customHeight="1" spans="1:9">
       <c r="A73" s="9" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="13" t="s">
@@ -22922,16 +21969,16 @@
     </row>
     <row r="74" ht="90" customHeight="1" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E74" s="20"/>
       <c r="F74" s="13" t="s">
@@ -22945,23 +21992,23 @@
     </row>
     <row r="75" ht="90" customHeight="1" spans="1:9">
       <c r="A75" s="9" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5" t="s">
@@ -22970,16 +22017,16 @@
     </row>
     <row r="76" ht="90" customHeight="1" spans="1:9">
       <c r="A76" s="9" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="13" t="s">
@@ -22993,16 +22040,16 @@
     </row>
     <row r="77" ht="90" customHeight="1" spans="1:9">
       <c r="A77" s="9" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E77" s="20"/>
       <c r="F77" s="13" t="s">
@@ -23016,23 +22063,23 @@
     </row>
     <row r="78" ht="216" spans="1:9">
       <c r="A78" s="9" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5" t="s">
@@ -23041,16 +22088,16 @@
     </row>
     <row r="79" ht="189" spans="1:9">
       <c r="A79" s="9" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="16" t="s">
@@ -23064,16 +22111,16 @@
     </row>
     <row r="80" ht="189" spans="1:9">
       <c r="A80" s="9" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="13" t="s">
@@ -23087,23 +22134,23 @@
     </row>
     <row r="81" ht="123" customHeight="1" spans="1:9">
       <c r="A81" s="9" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
@@ -23112,16 +22159,16 @@
     </row>
     <row r="82" ht="144" customHeight="1" spans="1:9">
       <c r="A82" s="9" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="16" t="s">
@@ -23130,21 +22177,21 @@
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="83" ht="153" customHeight="1" spans="1:9">
       <c r="A83" s="9" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="13" t="s">
@@ -23153,28 +22200,28 @@
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
       <c r="I83" s="16" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="84" ht="189" spans="1:9">
       <c r="A84" s="9" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>744</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2" t="s">
@@ -23183,16 +22230,16 @@
     </row>
     <row r="85" ht="189" spans="1:9">
       <c r="A85" s="9" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="16" t="s">
@@ -23201,21 +22248,21 @@
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="86" ht="189" spans="1:9">
       <c r="A86" s="9" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C86" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="13" t="s">
@@ -23224,28 +22271,28 @@
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
       <c r="I86" s="21" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="87" ht="189" spans="1:9">
       <c r="A87" s="9" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C87" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
@@ -23254,16 +22301,16 @@
     </row>
     <row r="88" ht="189" spans="1:9">
       <c r="A88" s="9" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="16" t="s">
@@ -23277,16 +22324,16 @@
     </row>
     <row r="89" ht="189" spans="1:9">
       <c r="A89" s="9" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C89" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="13" t="s">
@@ -23300,23 +22347,23 @@
     </row>
     <row r="90" ht="189" spans="1:9">
       <c r="A90" s="9" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="C90" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2" t="s">
@@ -23325,16 +22372,16 @@
     </row>
     <row r="91" ht="189" spans="1:9">
       <c r="A91" s="9" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="16" t="s">
@@ -23343,21 +22390,21 @@
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="92" ht="189" spans="1:9">
       <c r="A92" s="9" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C92" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="13" t="s">
@@ -23366,28 +22413,28 @@
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
       <c r="I92" s="24" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="93" ht="189" spans="1:9">
       <c r="A93" s="9" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="C93" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2" t="s">
@@ -23396,16 +22443,16 @@
     </row>
     <row r="94" ht="189" spans="1:9">
       <c r="A94" s="9" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="16" t="s">
@@ -23414,21 +22461,21 @@
       <c r="G94" s="21"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="95" ht="189" spans="1:9">
       <c r="A95" s="9" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="C95" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E95" s="26"/>
       <c r="F95" s="13" t="s">
@@ -23437,28 +22484,28 @@
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
       <c r="I95" s="24" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="96" ht="229.5" spans="1:9">
       <c r="A96" s="9" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="C96" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="2" t="s">
@@ -23467,16 +22514,16 @@
     </row>
     <row r="97" ht="270" spans="1:9">
       <c r="A97" s="9" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="16" t="s">
@@ -23490,16 +22537,16 @@
     </row>
     <row r="98" ht="270" spans="1:9">
       <c r="A98" s="9" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E98" s="26"/>
       <c r="F98" s="13" t="s">
@@ -23513,23 +22560,23 @@
     </row>
     <row r="99" ht="180" customHeight="1" spans="1:9">
       <c r="A99" s="9" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="2" t="s">
@@ -23538,16 +22585,16 @@
     </row>
     <row r="100" ht="222" customHeight="1" spans="1:9">
       <c r="A100" s="9" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="16" t="s">
@@ -23561,16 +22608,16 @@
     </row>
     <row r="101" ht="219" customHeight="1" spans="1:9">
       <c r="A101" s="9" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="13" t="s">
@@ -23584,23 +22631,23 @@
     </row>
     <row r="102" ht="189" spans="1:9">
       <c r="A102" s="9" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="C102" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2" t="s">
@@ -23609,16 +22656,16 @@
     </row>
     <row r="103" ht="144" customHeight="1" spans="1:9">
       <c r="A103" s="9" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E103" s="23"/>
       <c r="F103" s="16" t="s">
@@ -23627,21 +22674,21 @@
       <c r="G103" s="21"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="104" ht="148" customHeight="1" spans="1:9">
       <c r="A104" s="9" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="13" t="s">
@@ -23650,21 +22697,21 @@
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
       <c r="I104" s="21" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="105" ht="189" spans="1:9">
       <c r="A105" s="9" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>848</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="5" t="s">
@@ -23678,16 +22725,16 @@
     </row>
     <row r="106" ht="189" spans="1:9">
       <c r="A106" s="9" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E106" s="23"/>
       <c r="F106" s="16" t="s">
@@ -23701,16 +22748,16 @@
     </row>
     <row r="107" ht="189" spans="1:9">
       <c r="A107" s="9" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="5" t="s">
@@ -23724,16 +22771,16 @@
     </row>
     <row r="108" ht="150" customHeight="1" spans="1:9">
       <c r="A108" s="9" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="16" t="s">
@@ -23747,26 +22794,26 @@
     </row>
     <row r="109" ht="129" customHeight="1" spans="1:9">
       <c r="A109" s="9" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>37</v>
@@ -23774,16 +22821,16 @@
     </row>
     <row r="110" ht="129" customHeight="1" spans="1:9">
       <c r="A110" s="9" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="5" t="s">
@@ -23797,16 +22844,16 @@
     </row>
     <row r="111" ht="129" customHeight="1" spans="1:9">
       <c r="A111" s="9" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="5" t="s">
@@ -23820,16 +22867,16 @@
     </row>
     <row r="112" ht="142" customHeight="1" spans="1:9">
       <c r="A112" s="9" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E112" s="8"/>
       <c r="F112" s="5" t="s">
@@ -23843,16 +22890,16 @@
     </row>
     <row r="113" ht="189" spans="1:10">
       <c r="A113" s="9" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="13" t="s">
@@ -23869,16 +22916,16 @@
     </row>
     <row r="114" ht="189" spans="1:9">
       <c r="A114" s="9" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="E114" s="23"/>
       <c r="F114" s="16" t="s">
@@ -23895,7 +22942,7 @@
         <v>793</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>12</v>
@@ -23908,10 +22955,10 @@
         <v>867</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>559</v>
@@ -23922,13 +22969,13 @@
         <v>793</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="13" t="s">
@@ -23937,7 +22984,7 @@
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="117" ht="113" customHeight="1" spans="1:9">
@@ -23945,23 +22992,23 @@
         <v>793</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>744</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>559</v>
@@ -23972,13 +23019,13 @@
         <v>791</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="5" t="s">
@@ -23995,13 +23042,13 @@
         <v>793</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="13" t="s">
@@ -24016,18 +23063,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" ht="189" spans="1:9">
+    <row r="120" ht="189" spans="1:10">
       <c r="A120" s="9" t="s">
         <v>795</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="C120" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="E120" s="23"/>
       <c r="F120" s="16" t="s">
@@ -24037,6 +23084,9 @@
       <c r="H120" s="21"/>
       <c r="I120" s="21" t="s">
         <v>37</v>
+      </c>
+      <c r="J120">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -24054,8 +23104,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24105,26 +23155,26 @@
     </row>
     <row r="2" ht="32" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
@@ -24132,16 +23182,16 @@
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16" t="s">
@@ -24150,21 +23200,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="13" t="s">
@@ -24173,28 +23223,28 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
@@ -24203,16 +23253,16 @@
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16" t="s">
@@ -24226,16 +23276,16 @@
     </row>
     <row r="7" ht="67" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="13" t="s">
@@ -24249,23 +23299,23 @@
     </row>
     <row r="8" ht="79" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
@@ -24274,16 +23324,16 @@
     </row>
     <row r="9" ht="79" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16" t="s">
@@ -24297,16 +23347,16 @@
     </row>
     <row r="10" ht="79" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="13" t="s">
@@ -24320,23 +23370,23 @@
     </row>
     <row r="11" ht="79" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5" t="s">
@@ -24345,16 +23395,16 @@
     </row>
     <row r="12" ht="79" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="16" t="s">
@@ -24363,21 +23413,21 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="13" ht="79" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="13" t="s">
@@ -24386,28 +23436,28 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="16" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
@@ -24416,16 +23466,16 @@
     </row>
     <row r="15" ht="79" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="16" t="s">
@@ -24439,16 +23489,16 @@
     </row>
     <row r="16" ht="79" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="13" t="s">
@@ -24462,23 +23512,23 @@
     </row>
     <row r="17" ht="79" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5" t="s">
@@ -24487,16 +23537,16 @@
     </row>
     <row r="18" ht="79" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="16" t="s">
@@ -24505,21 +23555,21 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="19" ht="79" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="13" t="s">
@@ -24528,28 +23578,28 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="20" ht="202.5" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
@@ -24558,16 +23608,16 @@
     </row>
     <row r="21" ht="146" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="16" t="s">
@@ -24581,16 +23631,16 @@
     </row>
     <row r="22" ht="134" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="13" t="s">
@@ -24604,23 +23654,23 @@
     </row>
     <row r="23" ht="189" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
@@ -24629,16 +23679,16 @@
     </row>
     <row r="24" ht="189" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16" t="s">
@@ -24652,16 +23702,16 @@
     </row>
     <row r="25" ht="189" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="13" t="s">
@@ -24675,23 +23725,23 @@
     </row>
     <row r="26" ht="189" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -24700,16 +23750,16 @@
     </row>
     <row r="27" ht="189" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="16" t="s">
@@ -24718,21 +23768,21 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="28" ht="189" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="13" t="s">
@@ -24741,28 +23791,28 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="24" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="29" ht="189" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -24771,16 +23821,16 @@
     </row>
     <row r="30" ht="189" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="16" t="s">
@@ -24794,16 +23844,16 @@
     </row>
     <row r="31" ht="189" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="C31" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="13" t="s">
@@ -24817,23 +23867,23 @@
     </row>
     <row r="32" ht="216" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
@@ -24842,16 +23892,16 @@
     </row>
     <row r="33" ht="155" customHeight="1" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="16" t="s">
@@ -24865,16 +23915,16 @@
     </row>
     <row r="34" ht="160" customHeight="1" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="13" t="s">
@@ -24888,23 +23938,23 @@
     </row>
     <row r="35" ht="164" customHeight="1" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
@@ -24913,16 +23963,16 @@
     </row>
     <row r="36" ht="180" customHeight="1" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="16" t="s">
@@ -24936,16 +23986,16 @@
     </row>
     <row r="37" ht="178" customHeight="1" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="13" t="s">
@@ -24959,23 +24009,23 @@
     </row>
     <row r="38" ht="138" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
@@ -24984,16 +24034,16 @@
     </row>
     <row r="39" ht="162" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="16" t="s">
@@ -25007,16 +24057,16 @@
     </row>
     <row r="40" ht="137" customHeight="1" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="13" t="s">
@@ -25030,23 +24080,23 @@
     </row>
     <row r="41" ht="189" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
@@ -25055,16 +24105,16 @@
     </row>
     <row r="42" ht="189" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="16" t="s">
@@ -25078,16 +24128,16 @@
     </row>
     <row r="43" ht="189" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="13" t="s">
@@ -25101,26 +24151,26 @@
     </row>
     <row r="44" ht="108" customHeight="1" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>37</v>
@@ -25128,23 +24178,23 @@
     </row>
     <row r="45" ht="189" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27" t="s">
@@ -25153,16 +24203,16 @@
     </row>
     <row r="46" ht="130" customHeight="1" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="16" t="s">
@@ -25176,16 +24226,16 @@
     </row>
     <row r="47" ht="132" customHeight="1" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="13" t="s">
@@ -25199,23 +24249,23 @@
     </row>
     <row r="48" ht="51" customHeight="1" spans="1:9">
       <c r="A48" s="9" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5" t="s">
@@ -25224,16 +24274,16 @@
     </row>
     <row r="49" ht="51" customHeight="1" spans="1:9">
       <c r="A49" s="9" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="16" t="s">
@@ -25247,16 +24297,16 @@
     </row>
     <row r="50" ht="51" customHeight="1" spans="1:9">
       <c r="A50" s="9" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="13" t="s">
@@ -25270,23 +24320,23 @@
     </row>
     <row r="51" ht="51" customHeight="1" spans="1:9">
       <c r="A51" s="9" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5" t="s">
@@ -25295,16 +24345,16 @@
     </row>
     <row r="52" ht="51" customHeight="1" spans="1:9">
       <c r="A52" s="9" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="16" t="s">
@@ -25313,21 +24363,21 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="53" ht="51" customHeight="1" spans="1:9">
       <c r="A53" s="9" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="13" t="s">
@@ -25336,28 +24386,28 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="16" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="54" ht="51" customHeight="1" spans="1:9">
       <c r="A54" s="9" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5" t="s">
@@ -25366,16 +24416,16 @@
     </row>
     <row r="55" ht="51" customHeight="1" spans="1:9">
       <c r="A55" s="9" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="16" t="s">
@@ -25389,16 +24439,16 @@
     </row>
     <row r="56" ht="51" customHeight="1" spans="1:9">
       <c r="A56" s="9" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="13" t="s">
@@ -25412,23 +24462,23 @@
     </row>
     <row r="57" ht="51" customHeight="1" spans="1:9">
       <c r="A57" s="9" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5" t="s">
@@ -25437,16 +24487,16 @@
     </row>
     <row r="58" ht="51" customHeight="1" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="16" t="s">
@@ -25455,21 +24505,21 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="59" ht="51" customHeight="1" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="13" t="s">
@@ -25478,28 +24528,28 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="60" ht="144" customHeight="1" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5" t="s">
@@ -25508,16 +24558,16 @@
     </row>
     <row r="61" ht="108" customHeight="1" spans="1:9">
       <c r="A61" s="9" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="16" t="s">
@@ -25531,16 +24581,16 @@
     </row>
     <row r="62" ht="144" customHeight="1" spans="1:9">
       <c r="A62" s="9" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="13" t="s">
@@ -25554,23 +24604,23 @@
     </row>
     <row r="63" ht="189" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5" t="s">
@@ -25579,16 +24629,16 @@
     </row>
     <row r="64" ht="189" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="16" t="s">
@@ -25602,16 +24652,16 @@
     </row>
     <row r="65" ht="189" spans="1:9">
       <c r="A65" s="9" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="13" t="s">
@@ -25625,23 +24675,23 @@
     </row>
     <row r="66" ht="189" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>744</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
@@ -25650,16 +24700,16 @@
     </row>
     <row r="67" ht="189" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E67" s="23"/>
       <c r="F67" s="16" t="s">
@@ -25668,21 +24718,21 @@
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="68" ht="163" customHeight="1" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="13" t="s">
@@ -25691,28 +24741,28 @@
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="69" ht="189" spans="1:9">
       <c r="A69" s="9" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2" t="s">
@@ -25721,16 +24771,16 @@
     </row>
     <row r="70" ht="189" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="16" t="s">
@@ -25744,16 +24794,16 @@
     </row>
     <row r="71" ht="189" spans="1:9">
       <c r="A71" s="9" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="13" t="s">
@@ -25767,23 +24817,23 @@
     </row>
     <row r="72" ht="216" spans="1:9">
       <c r="A72" s="9" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2" t="s">
@@ -25792,16 +24842,16 @@
     </row>
     <row r="73" ht="270" spans="1:9">
       <c r="A73" s="9" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="16" t="s">
@@ -25815,16 +24865,16 @@
     </row>
     <row r="74" ht="270" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="13" t="s">
@@ -25838,23 +24888,23 @@
     </row>
     <row r="75" ht="188" customHeight="1" spans="1:9">
       <c r="A75" s="9" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2" t="s">
@@ -25863,16 +24913,16 @@
     </row>
     <row r="76" ht="164" customHeight="1" spans="1:9">
       <c r="A76" s="9" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="16" t="s">
@@ -25886,16 +24936,16 @@
     </row>
     <row r="77" ht="177" customHeight="1" spans="1:9">
       <c r="A77" s="9" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="C77" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="13" t="s">
@@ -25909,23 +24959,23 @@
     </row>
     <row r="78" ht="189" spans="1:9">
       <c r="A78" s="9" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2" t="s">
@@ -25934,16 +24984,16 @@
     </row>
     <row r="79" ht="137" customHeight="1" spans="1:9">
       <c r="A79" s="9" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="16" t="s">
@@ -25957,16 +25007,16 @@
     </row>
     <row r="80" ht="149" customHeight="1" spans="1:9">
       <c r="A80" s="9" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="C80" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="13" t="s">
@@ -25980,23 +25030,23 @@
     </row>
     <row r="81" ht="189" spans="1:9">
       <c r="A81" s="9" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>744</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2" t="s">
@@ -26005,16 +25055,16 @@
     </row>
     <row r="82" ht="134" customHeight="1" spans="1:9">
       <c r="A82" s="9" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="16" t="s">
@@ -26028,16 +25078,16 @@
     </row>
     <row r="83" ht="134" customHeight="1" spans="1:9">
       <c r="A83" s="9" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="13" t="s">
@@ -26051,16 +25101,16 @@
     </row>
     <row r="84" ht="189" spans="1:9">
       <c r="A84" s="9" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>848</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="5" t="s">
@@ -26074,16 +25124,16 @@
     </row>
     <row r="85" ht="189" spans="1:9">
       <c r="A85" s="9" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="16" t="s">
@@ -26097,16 +25147,16 @@
     </row>
     <row r="86" ht="189" spans="1:9">
       <c r="A86" s="9" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="5" t="s">
@@ -26120,16 +25170,16 @@
     </row>
     <row r="87" ht="189" spans="1:9">
       <c r="A87" s="9" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="16" t="s">
@@ -26143,26 +25193,26 @@
     </row>
     <row r="88" ht="92" customHeight="1" spans="1:9">
       <c r="A88" s="9" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>37</v>
@@ -26170,16 +25220,16 @@
     </row>
     <row r="89" ht="128" customHeight="1" spans="1:9">
       <c r="A89" s="9" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="5" t="s">
@@ -26193,16 +25243,16 @@
     </row>
     <row r="90" ht="189" spans="1:10">
       <c r="A90" s="9" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="13" t="s">
@@ -26219,16 +25269,16 @@
     </row>
     <row r="91" ht="189" spans="1:9">
       <c r="A91" s="9" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="16" t="s">
@@ -26245,7 +25295,7 @@
         <v>793</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -26258,10 +25308,10 @@
         <v>867</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>559</v>
@@ -26272,13 +25322,13 @@
         <v>793</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="13" t="s">
@@ -26287,7 +25337,7 @@
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="94" ht="174" customHeight="1" spans="1:9">
@@ -26295,23 +25345,23 @@
         <v>793</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>744</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="I94" s="14" t="s">
         <v>559</v>
@@ -26322,13 +25372,13 @@
         <v>791</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="5" t="s">
@@ -26345,13 +25395,13 @@
         <v>793</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="13" t="s">
@@ -26366,18 +25416,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" ht="189" spans="1:9">
+    <row r="97" ht="189" spans="1:10">
       <c r="A97" s="9" t="s">
         <v>795</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="16" t="s">
@@ -26387,6 +25437,9 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
         <v>37</v>
+      </c>
+      <c r="J97">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -26455,23 +25508,23 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>867</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -26480,26 +25533,26 @@
     </row>
     <row r="3" ht="69" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>37</v>
@@ -26507,23 +25560,23 @@
     </row>
     <row r="4" ht="69" customHeight="1" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="5" t="s">
         <v>867</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5" t="s">
@@ -26532,16 +25585,16 @@
     </row>
     <row r="5" ht="69" customHeight="1" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="5" t="s">
@@ -26550,28 +25603,28 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="6" ht="69" customHeight="1" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="5" t="s">
         <v>867</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
@@ -26580,16 +25633,16 @@
     </row>
     <row r="7" ht="69" customHeight="1" spans="1:9">
       <c r="A7" s="9" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="5" t="s">
@@ -26598,31 +25651,31 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1" spans="1:9">
       <c r="A8" s="9" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>37</v>
@@ -26630,48 +25683,48 @@
     </row>
     <row r="9" ht="69" customHeight="1" spans="1:9">
       <c r="A9" s="9" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:9">
       <c r="A10" s="9" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="14" t="s">
@@ -26680,173 +25733,173 @@
     </row>
     <row r="11" ht="36" customHeight="1" spans="1:9">
       <c r="A11" s="9" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="14" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:9">
       <c r="A12" s="9" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="14" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:9">
       <c r="A13" s="9" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="14" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="14" ht="35" customHeight="1" spans="1:9">
       <c r="A14" s="9" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="14" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:9">
       <c r="A15" s="9" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="14" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="16" ht="56" customHeight="1" spans="1:9">
       <c r="A16" s="9" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="17" ht="59" customHeight="1" spans="1:9">
       <c r="A17" s="9" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
@@ -26855,23 +25908,23 @@
     </row>
     <row r="18" ht="53" customHeight="1" spans="1:9">
       <c r="A18" s="9" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14" t="s">
@@ -26880,241 +25933,241 @@
     </row>
     <row r="19" ht="57" customHeight="1" spans="1:9">
       <c r="A19" s="9" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="20" ht="57" customHeight="1" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="21" ht="54" customHeight="1" spans="1:9">
       <c r="A21" s="9" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="22" ht="54" customHeight="1" spans="1:9">
       <c r="A22" s="9" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="23" ht="53" customHeight="1" spans="1:9">
       <c r="A23" s="9" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="24" ht="75" customHeight="1" spans="1:9">
       <c r="A24" s="9" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="25" ht="63" customHeight="1" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="26" ht="68" customHeight="1" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="27" ht="68" customHeight="1" spans="1:9">
       <c r="A27" s="9" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="28" ht="78" customHeight="1" spans="1:9">
       <c r="A28" s="9" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="13" t="s">
@@ -27128,16 +26181,16 @@
     </row>
     <row r="29" ht="78" customHeight="1" spans="1:9">
       <c r="A29" s="9" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="13" t="s">
@@ -27151,26 +26204,26 @@
     </row>
     <row r="30" ht="108" spans="1:9">
       <c r="A30" s="9" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>37</v>
@@ -27178,26 +26231,26 @@
     </row>
     <row r="31" ht="118" customHeight="1" spans="1:9">
       <c r="A31" s="9" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>37</v>
@@ -27205,26 +26258,26 @@
     </row>
     <row r="32" ht="112" customHeight="1" spans="1:9">
       <c r="A32" s="9" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>37</v>
@@ -27232,26 +26285,26 @@
     </row>
     <row r="33" ht="115" customHeight="1" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>37</v>
@@ -27259,26 +26312,26 @@
     </row>
     <row r="34" ht="114" customHeight="1" spans="1:9">
       <c r="A34" s="9" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>37</v>
@@ -27286,26 +26339,26 @@
     </row>
     <row r="35" ht="92" customHeight="1" spans="1:9">
       <c r="A35" s="9" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>37</v>
@@ -27313,26 +26366,26 @@
     </row>
     <row r="36" ht="100" customHeight="1" spans="1:9">
       <c r="A36" s="9" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>37</v>
@@ -27340,26 +26393,26 @@
     </row>
     <row r="37" ht="130" customHeight="1" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>37</v>
@@ -27367,26 +26420,26 @@
     </row>
     <row r="38" ht="133" customHeight="1" spans="1:9">
       <c r="A38" s="9" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>37</v>
@@ -27394,53 +26447,53 @@
     </row>
     <row r="39" ht="139" customHeight="1" spans="1:9">
       <c r="A39" s="9" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="40" ht="108" spans="1:9">
       <c r="A40" s="9" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>37</v>
@@ -27448,76 +26501,76 @@
     </row>
     <row r="41" ht="108" spans="1:9">
       <c r="A41" s="9" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="14" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="42" ht="108" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="14" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="43" ht="90" customHeight="1" spans="1:9">
       <c r="A43" s="9" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>859</v>
@@ -27525,41 +26578,41 @@
     </row>
     <row r="44" ht="108" spans="1:9">
       <c r="A44" s="9" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="14" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="45" ht="108" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="13" t="s">
@@ -27573,54 +26626,54 @@
     </row>
     <row r="46" ht="117" customHeight="1" spans="1:9">
       <c r="A46" s="9" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="47" ht="108" spans="1:9">
       <c r="A47" s="9" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="14" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
   </sheetData>
@@ -27689,26 +26742,26 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
         <v>867</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>37</v>
@@ -27716,27 +26769,27 @@
     </row>
     <row r="3" ht="100" customHeight="1" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="5" t="s">
         <v>867</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
     </row>
   </sheetData>
@@ -27754,8 +26807,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27808,23 +26861,23 @@
         <v>799</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2908</v>
+        <v>2470</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -27832,13 +26885,13 @@
     </row>
     <row r="3" ht="88" customHeight="1" spans="2:9">
       <c r="B3" s="6" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5" t="s">
@@ -27855,13 +26908,13 @@
         <v>800</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="5" t="s">
@@ -27894,7 +26947,7 @@
         <v>2909</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>2910</v>
+        <v>2193</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>37</v>
@@ -27911,7 +26964,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5" t="s">
@@ -27941,10 +26994,10 @@
         <v>591</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>2911</v>
+        <v>1523</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>2912</v>
+        <v>1642</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>37</v>
@@ -27991,10 +27044,10 @@
         <v>591</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>2913</v>
+        <v>1256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>2914</v>
+        <v>1360</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>37</v>
@@ -28041,10 +27094,10 @@
         <v>591</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>2915</v>
+        <v>1030</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>2916</v>
+        <v>1150</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>37</v>
@@ -28091,10 +27144,10 @@
         <v>591</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>2917</v>
+        <v>740</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>2918</v>
+        <v>861</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>37</v>
@@ -28138,10 +27191,10 @@
         <v>591</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>2919</v>
+        <v>1773</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>2920</v>
+        <v>2910</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>37</v>
@@ -28155,7 +27208,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>2921</v>
+        <v>2911</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="5" t="s">
@@ -28169,23 +27222,23 @@
     </row>
     <row r="17" ht="117" customHeight="1" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>2922</v>
+        <v>2609</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>2923</v>
+        <v>2912</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>37</v>
@@ -28193,13 +27246,13 @@
     </row>
     <row r="18" ht="108" spans="2:9">
       <c r="B18" s="6" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>2924</v>
+        <v>2913</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="5" t="s">
@@ -28277,23 +27330,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2925</v>
+        <v>2914</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2926</v>
+        <v>2915</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2927</v>
+        <v>2916</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2928</v>
+        <v>2917</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>37</v>
@@ -28304,20 +27357,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2929</v>
+        <v>2918</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2926</v>
+        <v>2915</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>2930</v>
+        <v>2919</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -28326,24 +27379,24 @@
     </row>
     <row r="4" ht="108" spans="2:9">
       <c r="B4" s="2" t="s">
-        <v>2931</v>
+        <v>2920</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2932</v>
+        <v>2921</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>591</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>2933</v>
+        <v>2922</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>2934</v>
+        <v>2923</v>
       </c>
     </row>
   </sheetData>
@@ -28358,8 +27411,8 @@
   <sheetPr/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32042,8 +31095,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35078,8 +34131,8 @@
   <sheetPr/>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView topLeftCell="B113" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38226,8 +37279,8 @@
   <sheetPr/>
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40860,8 +39913,8 @@
   <sheetPr/>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -43778,8 +42831,8 @@
   <sheetPr/>
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -46090,7 +45143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" ht="189" spans="1:9">
+    <row r="97" ht="189" spans="1:10">
       <c r="A97" s="9" t="s">
         <v>795</v>
       </c>
@@ -46111,6 +45164,9 @@
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
         <v>37</v>
+      </c>
+      <c r="J97">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -46129,7 +45185,7 @@
   <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+      <selection activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49156,10 +48212,10 @@
         <v>591</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>2055</v>
+        <v>2192</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>37</v>
@@ -49167,7 +48223,7 @@
     </row>
     <row r="128" ht="189" spans="1:9">
       <c r="A128" s="9" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>2186</v>
@@ -49176,7 +48232,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E128" s="8"/>
       <c r="F128" s="5" t="s">
@@ -49190,16 +48246,16 @@
     </row>
     <row r="129" ht="189" spans="1:10">
       <c r="A129" s="9" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="13" t="s">
@@ -49216,16 +48272,16 @@
     </row>
     <row r="130" ht="189" spans="1:9">
       <c r="A130" s="9" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="C130" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="E130" s="23"/>
       <c r="F130" s="16" t="s">
@@ -49242,7 +48298,7 @@
         <v>793</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
@@ -49255,10 +48311,10 @@
         <v>867</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>559</v>
@@ -49269,13 +48325,13 @@
         <v>793</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="13" t="s">
@@ -49284,7 +48340,7 @@
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="133" ht="108" customHeight="1" spans="1:9">
@@ -49292,23 +48348,23 @@
         <v>793</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>744</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="13" t="s">
         <v>867</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>559</v>
@@ -49319,13 +48375,13 @@
         <v>791</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="5" t="s">
@@ -49342,13 +48398,13 @@
         <v>793</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="13" t="s">
@@ -49363,18 +48419,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" ht="189" spans="1:9">
+    <row r="136" ht="189" spans="1:10">
       <c r="A136" s="9" t="s">
         <v>795</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="C136" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="16" t="s">
@@ -49384,6 +48440,9 @@
       <c r="H136" s="21"/>
       <c r="I136" s="21" t="s">
         <v>37</v>
+      </c>
+      <c r="J136">
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="2:9">
